--- a/BrancheIntermediare/ig/StructureDefinition-fr-medication-administration-document.xlsx
+++ b/BrancheIntermediare/ig/StructureDefinition-fr-medication-administration-document.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-03T16:46:30+00:00</t>
+    <t>2025-12-03T16:47:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/BrancheIntermediare/ig/StructureDefinition-fr-medication-administration-document.xlsx
+++ b/BrancheIntermediare/ig/StructureDefinition-fr-medication-administration-document.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-03T16:47:23+00:00</t>
+    <t>2025-12-04T14:08:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/BrancheIntermediare/ig/StructureDefinition-fr-medication-administration-document.xlsx
+++ b/BrancheIntermediare/ig/StructureDefinition-fr-medication-administration-document.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1939" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1939" uniqueCount="400">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T14:08:40+00:00</t>
+    <t>2025-12-05T10:50:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -732,8 +732,8 @@
     <t>MedicationAdministration.medication[x]</t>
   </si>
   <si>
-    <t>CodeableConcept
-Reference(https://interop.esante.gouv.fr/ig/document/core/StructureDefinition/fr-medication-document|https://interop.esante.gouv.fr/ig/document/core/StructureDefinition/fr-medications-combinaison-document)</t>
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/document/core/StructureDefinition/fr-medication-document|https://interop.esante.gouv.fr/ig/document/core/StructureDefinition/fr-medications-combinaison-document)
+</t>
   </si>
   <si>
     <t>What was administered</t>
@@ -743,12 +743,6 @@
   </si>
   <si>
     <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
-  </si>
-  <si>
-    <t>Codes identifying substance or product that can be administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-codes|4.0.1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -4264,13 +4258,13 @@
         <v>78</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>216</v>
+        <v>78</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>233</v>
+        <v>78</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>234</v>
+        <v>78</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>78</v>
@@ -4303,16 +4297,16 @@
         <v>100</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>78</v>
@@ -4320,10 +4314,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4346,13 +4340,13 @@
         <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4403,7 +4397,7 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>88</v>
@@ -4418,16 +4412,16 @@
         <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>78</v>
@@ -4435,10 +4429,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4461,13 +4455,13 @@
         <v>78</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4518,7 +4512,7 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4533,16 +4527,16 @@
         <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>78</v>
@@ -4550,10 +4544,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4576,13 +4570,13 @@
         <v>78</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4633,7 +4627,7 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4651,10 +4645,10 @@
         <v>78</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>78</v>
@@ -4665,10 +4659,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4691,13 +4685,13 @@
         <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4748,7 +4742,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>88</v>
@@ -4763,16 +4757,16 @@
         <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>78</v>
@@ -4780,10 +4774,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4806,13 +4800,13 @@
         <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4863,7 +4857,7 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -4878,16 +4872,16 @@
         <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AN28" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>78</v>
@@ -4895,10 +4889,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5010,10 +5004,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5039,10 +5033,10 @@
         <v>133</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="N30" t="s" s="2">
         <v>178</v>
@@ -5127,14 +5121,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5156,10 +5150,10 @@
         <v>133</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="N31" t="s" s="2">
         <v>178</v>
@@ -5214,7 +5208,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5246,10 +5240,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5275,10 +5269,10 @@
         <v>213</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5308,10 +5302,10 @@
         <v>216</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>78</v>
@@ -5329,7 +5323,7 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5344,10 +5338,10 @@
         <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>78</v>
@@ -5361,10 +5355,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5387,13 +5381,13 @@
         <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5444,7 +5438,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>88</v>
@@ -5459,10 +5453,10 @@
         <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>78</v>
@@ -5476,10 +5470,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5505,10 +5499,10 @@
         <v>213</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5538,10 +5532,10 @@
         <v>216</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>78</v>
@@ -5559,7 +5553,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5574,16 +5568,16 @@
         <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>78</v>
@@ -5591,10 +5585,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5617,16 +5611,16 @@
         <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5676,7 +5670,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5691,27 +5685,27 @@
         <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AN35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO35" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>314</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5734,16 +5728,16 @@
         <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5793,7 +5787,7 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -5808,16 +5802,16 @@
         <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>78</v>
@@ -5825,10 +5819,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5851,13 +5845,13 @@
         <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5908,7 +5902,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -5926,13 +5920,13 @@
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>78</v>
@@ -5940,10 +5934,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5966,13 +5960,13 @@
         <v>78</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6023,7 +6017,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6038,10 +6032,10 @@
         <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>78</v>
@@ -6055,10 +6049,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6081,13 +6075,13 @@
         <v>78</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6138,7 +6132,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6150,13 +6144,13 @@
         <v>78</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>78</v>
@@ -6170,10 +6164,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6285,10 +6279,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6398,13 +6392,13 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B42" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="C42" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="C42" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>78</v>
@@ -6426,13 +6420,13 @@
         <v>78</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6515,14 +6509,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6544,10 +6538,10 @@
         <v>133</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="N43" t="s" s="2">
         <v>178</v>
@@ -6602,7 +6596,7 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6634,10 +6628,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6663,10 +6657,10 @@
         <v>148</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6717,7 +6711,7 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -6735,7 +6729,7 @@
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>78</v>
@@ -6749,10 +6743,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6778,13 +6772,13 @@
         <v>213</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="N45" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6814,7 +6808,7 @@
       </c>
       <c r="Y45" s="2"/>
       <c r="Z45" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>78</v>
@@ -6832,7 +6826,7 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -6850,13 +6844,13 @@
         <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>78</v>
@@ -6864,10 +6858,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6893,10 +6887,10 @@
         <v>213</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6926,10 +6920,10 @@
         <v>205</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>78</v>
@@ -6947,7 +6941,7 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -6965,13 +6959,13 @@
         <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>78</v>
@@ -6979,10 +6973,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7008,13 +7002,13 @@
         <v>213</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="N47" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7043,10 +7037,10 @@
         <v>216</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>78</v>
@@ -7064,7 +7058,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7082,13 +7076,13 @@
         <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>78</v>
@@ -7096,10 +7090,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7122,16 +7116,16 @@
         <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7181,7 +7175,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7199,13 +7193,13 @@
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>78</v>
@@ -7213,10 +7207,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7239,16 +7233,16 @@
         <v>78</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7296,7 +7290,7 @@
         <v>170</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7314,13 +7308,13 @@
         <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>78</v>
@@ -7328,13 +7322,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>78</v>
@@ -7356,16 +7350,16 @@
         <v>78</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7415,7 +7409,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7433,13 +7427,13 @@
         <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>78</v>
@@ -7447,13 +7441,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>78</v>
@@ -7475,16 +7469,16 @@
         <v>78</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7534,7 +7528,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7552,13 +7546,13 @@
         <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>78</v>
@@ -7566,10 +7560,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7592,16 +7586,16 @@
         <v>78</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7651,7 +7645,7 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -7669,7 +7663,7 @@
         <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>78</v>
